--- a/R2D2設計.xlsx
+++ b/R2D2設計.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.motoyama\Desktop\python\R2D2_buckup_20221212\host\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmotoyama\Desktop\github\ssbu_r2d2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3CF4C-D96D-4CD8-AADB-17C288CB6C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D05FC-1245-4E3E-9D11-033D12DADAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1030" yWindow="3400" windowWidth="16370" windowHeight="17570" activeTab="1" xr2:uid="{2E76F583-7444-48AB-A442-8332E467B8D1}"/>
+    <workbookView xWindow="6345" yWindow="855" windowWidth="14400" windowHeight="14505" activeTab="2" xr2:uid="{2E76F583-7444-48AB-A442-8332E467B8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="DQN" sheetId="2" r:id="rId1"/>
     <sheet name="R2D2" sheetId="1" r:id="rId2"/>
+    <sheet name="報酬設計" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>state</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +163,34 @@
     <t>batch[i]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e^x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scale1*(1-e^(-scale2*x))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scale1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scale2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,6 +281,2848 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e^x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.7182818284590451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3890560989306495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.085536923187664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.598150033144229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.41315910257657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>403.428793492735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096.6331584284583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980.9579870417274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8103.0839275753815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22026.465794806707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59874.141715197788</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162754.79141900386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>442413.39200892026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1202604.2841647761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3269017.3724721088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8886110.5205078665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24154952.75357528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65659969.137330458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178482300.9631871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>485165195.40978986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1318815734.4832134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3584912846.131588</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9744803446.2488937</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26489122129.843445</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72004899337.385803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195729609428.83853</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>532048240601.79797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1446257064291.4736</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3931334297144.0371</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10686474581524.449</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29048849665247.391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78962960182680.594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214643579785915.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>583461742527454.13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1586013452313428.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4311231547115189</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1719142372802594E+16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1855931757113704E+16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6593400423993616E+16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3538526683701962E+17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.3984349353005389E+17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7392749415204982E+18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7278394682293381E+18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2851600114359286E+19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4934271057485029E+19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4961194206024319E+19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5813128861900626E+20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0167359120976183E+20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9073465724950959E+21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.1847055285870616E+21</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4093490824269357E+22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8310080007165685E+22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0413759433029065E+23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8307533032746876E+23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6947852651420001E+23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0916594960129913E+24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6857199993359191E+24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5455389355901001E+25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2012104037905041E+25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1420073898156817E+26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1042979357019123E+26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.4383566687414332E+26</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2937831594696042E+27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2351490808116014E+27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6948892444103294E+28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6071866343312795E+28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2523631708422105E+29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4042760499317316E+29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.2537817255877633E+29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5154386709191598E+30</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.837671229762725E+30</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8586717452841227E+31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0523936302760904E+31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3733829795401721E+32</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.7332419967989907E+32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0148003881138859E+33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.7585134545231617E+33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.4984169969900978E+33</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0382810665126626E+34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5406223843934923E+34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5060973145850256E+35</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0939969621274412E+35</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1128637547917556E+36</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.0250773222011319E+36</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.2230127146228848E+36</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2352466037347074E+37</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.0760302250568511E+37</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.651636254993996E+38</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4896128191743297E+38</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2204032943178363E+39</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.3174000983357301E+39</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0176284050342671E+39</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4512455429200768E+40</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.663176216410871E+40</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8112390828890168E+41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.9234582860120397E+41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3383347192042644E+42</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.6379709476087905E+42</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8890303193469079E+42</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6881171418161247E+43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1BD-4C31-808F-C76BE7429F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444944912"/>
+        <c:axId val="444946160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444944912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444946160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444946160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444944912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scale1*(1-e^(-scale2*x))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>3.375556048392292E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5991870483067427E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6777307532939311E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12617717167299644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15425382395678847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18106681872811176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.206673029943757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2311267718107971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25447991399430242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27678199163985451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29808031044423111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31842004699713167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33784434460678092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35639440481266982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3741095747795451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39102743075802049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40718385778884303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42261312581987476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43734796239724777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45141962208487635</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46485795275957831</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47769145892242332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48994736216060059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50165165888805596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51282917548737084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52350362096984804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53369763726550379</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54343284724963681</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55272990060784566</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56160851763678088</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5700875310735376</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57818492604241634</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58591787820378283</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59330279018594645</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60035532637733335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60709044615275587</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61352243560425057</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61966493784379628</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62553098194218237</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63113301056541593</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63648290636728377</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64159201719405479</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64647118015478311</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65113074460826903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6555805941154369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65983016740369349</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66388847838773335</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66776413528926071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67146535889618209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67499999999999949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67837555604839195</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.68159918704830635</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68467773075329352</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68761771716729925</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69042538239567852</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69310668187281088</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6956673029943754</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69811267718107939</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.70044799139942993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.70267819916398511</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.7048080310444228</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70684200469971292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.70878443446067785</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.71063944048126682</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.71241095747795424</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.71410274307580179</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.71571838577888403</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.71726131258198733</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.71873479623972458</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.72014196220848747</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72148579527595769</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72276914589224206</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72399473621605992</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72516516588880542</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.72628291754873686</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.72735036209698467</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.72836976372655027</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.72934328472496357</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7302729900607845</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.73116085176367795</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73200875310735369</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.73281849260424159</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.73359178782037815</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.7343302790185946</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73503553263773325</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.73570904461527542</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.73635224356042495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.73696649378437962</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7375530981942181</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.73811330105654149</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73864829063672832</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.73915920171940541</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73964711801547822</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.74011307446082686</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74055805941154362</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.74098301674036926</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.74138884783877335</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.74177641352892598</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.74214653588961821</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.74249999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63D5-48FD-926A-F3D7A378C44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="450203552"/>
+        <c:axId val="450204800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450203552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450203552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1995,6 +4869,1209 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F29B53-CC64-48BE-BE3D-600200F8D140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06778D9E-30E1-476E-9886-AEE84933D932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>e^x</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>scale1*(1-e^(-scale2*x))</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>2.7182818284590451</v>
+          </cell>
+          <cell r="C2">
+            <v>3.375556048392292E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>7.3890560989306495</v>
+          </cell>
+          <cell r="C3">
+            <v>6.5991870483067427E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>20.085536923187664</v>
+          </cell>
+          <cell r="C4">
+            <v>9.6777307532939311E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>54.598150033144229</v>
+          </cell>
+          <cell r="C5">
+            <v>0.12617717167299644</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>148.41315910257657</v>
+          </cell>
+          <cell r="C6">
+            <v>0.15425382395678847</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>403.428793492735</v>
+          </cell>
+          <cell r="C7">
+            <v>0.18106681872811176</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>1096.6331584284583</v>
+          </cell>
+          <cell r="C8">
+            <v>0.206673029943757</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>2980.9579870417274</v>
+          </cell>
+          <cell r="C9">
+            <v>0.2311267718107971</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>8103.0839275753815</v>
+          </cell>
+          <cell r="C10">
+            <v>0.25447991399430242</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>22026.465794806707</v>
+          </cell>
+          <cell r="C11">
+            <v>0.27678199163985451</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>59874.141715197788</v>
+          </cell>
+          <cell r="C12">
+            <v>0.29808031044423111</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>162754.79141900386</v>
+          </cell>
+          <cell r="C13">
+            <v>0.31842004699713167</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>442413.39200892026</v>
+          </cell>
+          <cell r="C14">
+            <v>0.33784434460678092</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>1202604.2841647761</v>
+          </cell>
+          <cell r="C15">
+            <v>0.35639440481266982</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>3269017.3724721088</v>
+          </cell>
+          <cell r="C16">
+            <v>0.3741095747795451</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>8886110.5205078665</v>
+          </cell>
+          <cell r="C17">
+            <v>0.39102743075802049</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>24154952.75357528</v>
+          </cell>
+          <cell r="C18">
+            <v>0.40718385778884303</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>65659969.137330458</v>
+          </cell>
+          <cell r="C19">
+            <v>0.42261312581987476</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>178482300.9631871</v>
+          </cell>
+          <cell r="C20">
+            <v>0.43734796239724777</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>485165195.40978986</v>
+          </cell>
+          <cell r="C21">
+            <v>0.45141962208487635</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>1318815734.4832134</v>
+          </cell>
+          <cell r="C22">
+            <v>0.46485795275957831</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>3584912846.131588</v>
+          </cell>
+          <cell r="C23">
+            <v>0.47769145892242332</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>9744803446.2488937</v>
+          </cell>
+          <cell r="C24">
+            <v>0.48994736216060059</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>26489122129.843445</v>
+          </cell>
+          <cell r="C25">
+            <v>0.50165165888805596</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>72004899337.385803</v>
+          </cell>
+          <cell r="C26">
+            <v>0.51282917548737084</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>195729609428.83853</v>
+          </cell>
+          <cell r="C27">
+            <v>0.52350362096984804</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>532048240601.79797</v>
+          </cell>
+          <cell r="C28">
+            <v>0.53369763726550379</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>1446257064291.4736</v>
+          </cell>
+          <cell r="C29">
+            <v>0.54343284724963681</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>3931334297144.0371</v>
+          </cell>
+          <cell r="C30">
+            <v>0.55272990060784566</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>10686474581524.449</v>
+          </cell>
+          <cell r="C31">
+            <v>0.56160851763678088</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="B32">
+            <v>29048849665247.391</v>
+          </cell>
+          <cell r="C32">
+            <v>0.5700875310735376</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="B33">
+            <v>78962960182680.594</v>
+          </cell>
+          <cell r="C33">
+            <v>0.57818492604241634</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="B34">
+            <v>214643579785915.78</v>
+          </cell>
+          <cell r="C34">
+            <v>0.58591787820378283</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="B35">
+            <v>583461742527454.13</v>
+          </cell>
+          <cell r="C35">
+            <v>0.59330279018594645</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>1586013452313428.5</v>
+          </cell>
+          <cell r="C36">
+            <v>0.60035532637733335</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>4311231547115189</v>
+          </cell>
+          <cell r="C37">
+            <v>0.60709044615275587</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>1.1719142372802594E+16</v>
+          </cell>
+          <cell r="C38">
+            <v>0.61352243560425057</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>3.1855931757113704E+16</v>
+          </cell>
+          <cell r="C39">
+            <v>0.61966493784379628</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>8.6593400423993616E+16</v>
+          </cell>
+          <cell r="C40">
+            <v>0.62553098194218237</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>2.3538526683701962E+17</v>
+          </cell>
+          <cell r="C41">
+            <v>0.63113301056541593</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>6.3984349353005389E+17</v>
+          </cell>
+          <cell r="C42">
+            <v>0.63648290636728377</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>1.7392749415204982E+18</v>
+          </cell>
+          <cell r="C43">
+            <v>0.64159201719405479</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>4.7278394682293381E+18</v>
+          </cell>
+          <cell r="C44">
+            <v>0.64647118015478311</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="B45">
+            <v>1.2851600114359286E+19</v>
+          </cell>
+          <cell r="C45">
+            <v>0.65113074460826903</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="B46">
+            <v>3.4934271057485029E+19</v>
+          </cell>
+          <cell r="C46">
+            <v>0.6555805941154369</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="B47">
+            <v>9.4961194206024319E+19</v>
+          </cell>
+          <cell r="C47">
+            <v>0.65983016740369349</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="B48">
+            <v>2.5813128861900626E+20</v>
+          </cell>
+          <cell r="C48">
+            <v>0.66388847838773335</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="B49">
+            <v>7.0167359120976183E+20</v>
+          </cell>
+          <cell r="C49">
+            <v>0.66776413528926071</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="B50">
+            <v>1.9073465724950959E+21</v>
+          </cell>
+          <cell r="C50">
+            <v>0.67146535889618209</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="B51">
+            <v>5.1847055285870616E+21</v>
+          </cell>
+          <cell r="C51">
+            <v>0.67499999999999949</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>1.4093490824269357E+22</v>
+          </cell>
+          <cell r="C52">
+            <v>0.67837555604839195</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>3.8310080007165685E+22</v>
+          </cell>
+          <cell r="C53">
+            <v>0.68159918704830635</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>1.0413759433029065E+23</v>
+          </cell>
+          <cell r="C54">
+            <v>0.68467773075329352</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>2.8307533032746876E+23</v>
+          </cell>
+          <cell r="C55">
+            <v>0.68761771716729925</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>7.6947852651420001E+23</v>
+          </cell>
+          <cell r="C56">
+            <v>0.69042538239567852</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>2.0916594960129913E+24</v>
+          </cell>
+          <cell r="C57">
+            <v>0.69310668187281088</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>5.6857199993359191E+24</v>
+          </cell>
+          <cell r="C58">
+            <v>0.6956673029943754</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>1.5455389355901001E+25</v>
+          </cell>
+          <cell r="C59">
+            <v>0.69811267718107939</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>4.2012104037905041E+25</v>
+          </cell>
+          <cell r="C60">
+            <v>0.70044799139942993</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>1.1420073898156817E+26</v>
+          </cell>
+          <cell r="C61">
+            <v>0.70267819916398511</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>3.1042979357019123E+26</v>
+          </cell>
+          <cell r="C62">
+            <v>0.7048080310444228</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>8.4383566687414332E+26</v>
+          </cell>
+          <cell r="C63">
+            <v>0.70684200469971292</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>2.2937831594696042E+27</v>
+          </cell>
+          <cell r="C64">
+            <v>0.70878443446067785</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>6.2351490808116014E+27</v>
+          </cell>
+          <cell r="C65">
+            <v>0.71063944048126682</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>1.6948892444103294E+28</v>
+          </cell>
+          <cell r="C66">
+            <v>0.71241095747795424</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>4.6071866343312795E+28</v>
+          </cell>
+          <cell r="C67">
+            <v>0.71410274307580179</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>1.2523631708422105E+29</v>
+          </cell>
+          <cell r="C68">
+            <v>0.71571838577888403</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>3.4042760499317316E+29</v>
+          </cell>
+          <cell r="C69">
+            <v>0.71726131258198733</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>9.2537817255877633E+29</v>
+          </cell>
+          <cell r="C70">
+            <v>0.71873479623972458</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>2.5154386709191598E+30</v>
+          </cell>
+          <cell r="C71">
+            <v>0.72014196220848747</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>6.837671229762725E+30</v>
+          </cell>
+          <cell r="C72">
+            <v>0.72148579527595769</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>1.8586717452841227E+31</v>
+          </cell>
+          <cell r="C73">
+            <v>0.72276914589224206</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>5.0523936302760904E+31</v>
+          </cell>
+          <cell r="C74">
+            <v>0.72399473621605992</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>1.3733829795401721E+32</v>
+          </cell>
+          <cell r="C75">
+            <v>0.72516516588880542</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>3.7332419967989907E+32</v>
+          </cell>
+          <cell r="C76">
+            <v>0.72628291754873686</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>1.0148003881138859E+33</v>
+          </cell>
+          <cell r="C77">
+            <v>0.72735036209698467</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>2.7585134545231617E+33</v>
+          </cell>
+          <cell r="C78">
+            <v>0.72836976372655027</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>7.4984169969900978E+33</v>
+          </cell>
+          <cell r="C79">
+            <v>0.72934328472496357</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>2.0382810665126626E+34</v>
+          </cell>
+          <cell r="C80">
+            <v>0.7302729900607845</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>5.5406223843934923E+34</v>
+          </cell>
+          <cell r="C81">
+            <v>0.73116085176367795</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>1.5060973145850256E+35</v>
+          </cell>
+          <cell r="C82">
+            <v>0.73200875310735369</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+          <cell r="B83">
+            <v>4.0939969621274412E+35</v>
+          </cell>
+          <cell r="C83">
+            <v>0.73281849260424159</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>1.1128637547917556E+36</v>
+          </cell>
+          <cell r="C84">
+            <v>0.73359178782037815</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>3.0250773222011319E+36</v>
+          </cell>
+          <cell r="C85">
+            <v>0.7343302790185946</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>8.2230127146228848E+36</v>
+          </cell>
+          <cell r="C86">
+            <v>0.73503553263773325</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>2.2352466037347074E+37</v>
+          </cell>
+          <cell r="C87">
+            <v>0.73570904461527542</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>6.0760302250568511E+37</v>
+          </cell>
+          <cell r="C88">
+            <v>0.73635224356042495</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>1.651636254993996E+38</v>
+          </cell>
+          <cell r="C89">
+            <v>0.73696649378437962</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>4.4896128191743297E+38</v>
+          </cell>
+          <cell r="C90">
+            <v>0.7375530981942181</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>1.2204032943178363E+39</v>
+          </cell>
+          <cell r="C91">
+            <v>0.73811330105654149</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>91</v>
+          </cell>
+          <cell r="B92">
+            <v>3.3174000983357301E+39</v>
+          </cell>
+          <cell r="C92">
+            <v>0.73864829063672832</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>92</v>
+          </cell>
+          <cell r="B93">
+            <v>9.0176284050342671E+39</v>
+          </cell>
+          <cell r="C93">
+            <v>0.73915920171940541</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>93</v>
+          </cell>
+          <cell r="B94">
+            <v>2.4512455429200768E+40</v>
+          </cell>
+          <cell r="C94">
+            <v>0.73964711801547822</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>94</v>
+          </cell>
+          <cell r="B95">
+            <v>6.663176216410871E+40</v>
+          </cell>
+          <cell r="C95">
+            <v>0.74011307446082686</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>95</v>
+          </cell>
+          <cell r="B96">
+            <v>1.8112390828890168E+41</v>
+          </cell>
+          <cell r="C96">
+            <v>0.74055805941154362</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>96</v>
+          </cell>
+          <cell r="B97">
+            <v>4.9234582860120397E+41</v>
+          </cell>
+          <cell r="C97">
+            <v>0.74098301674036926</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>97</v>
+          </cell>
+          <cell r="B98">
+            <v>1.3383347192042644E+42</v>
+          </cell>
+          <cell r="C98">
+            <v>0.74138884783877335</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>98</v>
+          </cell>
+          <cell r="B99">
+            <v>3.6379709476087905E+42</v>
+          </cell>
+          <cell r="C99">
+            <v>0.74177641352892598</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>99</v>
+          </cell>
+          <cell r="B100">
+            <v>9.8890303193469079E+42</v>
+          </cell>
+          <cell r="C100">
+            <v>0.74214653588961821</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>100</v>
+          </cell>
+          <cell r="B101">
+            <v>2.6881171418161247E+43</v>
+          </cell>
+          <cell r="C101">
+            <v>0.74249999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2298,12 +6375,12 @@
       <selection activeCell="B8" sqref="B8:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2311,32 +6388,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2352,20 +6429,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7803650-A63E-4928-BFFA-E016A8060E18}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="8.6640625" style="2"/>
-    <col min="9" max="10" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2"/>
+    <col min="5" max="5" width="8.625" style="2"/>
+    <col min="9" max="10" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2377,7 +6454,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2406,97 +6483,97 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
         <v>28</v>
       </c>
@@ -2510,4 +6587,1359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CBFFC1-A68D-4D35-B8D4-8D629386E8C7}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>EXP(1)^A2</f>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="C2">
+        <f>$F$5*(1-EXP(1)^(-$F$6*A2))</f>
+        <v>3.375556048392292E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">EXP(1)^A3</f>
+        <v>7.3890560989306495</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">$F$5*(1-EXP(1)^(-$F$6*A3))</f>
+        <v>6.5991870483067427E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <f>F2*0.99</f>
+        <v>0.74249999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>20.085536923187664</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>9.6777307532939311E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>54.598150033144229</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.12617717167299644</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <f>F2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>148.41315910257657</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.15425382395678847</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <f>LN(1-F3/F2)/-100</f>
+        <v>4.6051701859880792E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>403.428793492735</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.18106681872811176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1096.6331584284583</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.206673029943757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2980.9579870417274</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.2311267718107971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8103.0839275753815</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.25447991399430242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>22026.465794806707</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.27678199163985451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>59874.141715197788</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.29808031044423111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>162754.79141900386</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.31842004699713167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>442413.39200892026</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.33784434460678092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1202604.2841647761</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.35639440481266982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3269017.3724721088</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.3741095747795451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8886110.5205078665</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.39102743075802049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>24154952.75357528</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.40718385778884303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>65659969.137330458</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.42261312581987476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>178482300.9631871</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.43734796239724777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>485165195.40978986</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.45141962208487635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1318815734.4832134</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.46485795275957831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3584912846.131588</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.47769145892242332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>9744803446.2488937</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.48994736216060059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>26489122129.843445</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.50165165888805596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>72004899337.385803</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.51282917548737084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>195729609428.83853</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.52350362096984804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>532048240601.79797</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.53369763726550379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1446257064291.4736</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.54343284724963681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>3931334297144.0371</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.55272990060784566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>10686474581524.449</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.56160851763678088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>29048849665247.391</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.5700875310735376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>78962960182680.594</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.57818492604241634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>214643579785915.78</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.58591787820378283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>583461742527454.13</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.59330279018594645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1586013452313428.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.60035532637733335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>4311231547115189</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.60709044615275587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.1719142372802594E+16</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.61352243560425057</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3.1855931757113704E+16</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.61966493784379628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>8.6593400423993616E+16</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.62553098194218237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.3538526683701962E+17</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.63113301056541593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>6.3984349353005389E+17</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.63648290636728377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.7392749415204982E+18</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.64159201719405479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>4.7278394682293381E+18</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.64647118015478311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.2851600114359286E+19</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.65113074460826903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3.4934271057485029E+19</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.6555805941154369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>9.4961194206024319E+19</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.65983016740369349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2.5813128861900626E+20</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.66388847838773335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>7.0167359120976183E+20</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.66776413528926071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1.9073465724950959E+21</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.67146535889618209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>5.1847055285870616E+21</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.67499999999999949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1.4093490824269357E+22</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.67837555604839195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3.8310080007165685E+22</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.68159918704830635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.0413759433029065E+23</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.68467773075329352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2.8307533032746876E+23</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.68761771716729925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>7.6947852651420001E+23</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.69042538239567852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2.0916594960129913E+24</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.69310668187281088</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>5.6857199993359191E+24</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.6956673029943754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1.5455389355901001E+25</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.69811267718107939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>4.2012104037905041E+25</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.70044799139942993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.1420073898156817E+26</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.70267819916398511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3.1042979357019123E+26</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.7048080310444228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>8.4383566687414332E+26</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.70684200469971292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2.2937831594696042E+27</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.70878443446067785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>6.2351490808116014E+27</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.71063944048126682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1.6948892444103294E+28</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.71241095747795424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" si="2">EXP(1)^A67</f>
+        <v>4.6071866343312795E+28</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="3">$F$5*(1-EXP(1)^(-$F$6*A67))</f>
+        <v>0.71410274307580179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>1.2523631708422105E+29</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>0.71571838577888403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>3.4042760499317316E+29</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>0.71726131258198733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>9.2537817255877633E+29</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>0.71873479623972458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>2.5154386709191598E+30</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>0.72014196220848747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>6.837671229762725E+30</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>0.72148579527595769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>1.8586717452841227E+31</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>0.72276914589224206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>5.0523936302760904E+31</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>0.72399473621605992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>1.3733829795401721E+32</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>0.72516516588880542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>3.7332419967989907E+32</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>0.72628291754873686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1.0148003881138859E+33</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0.72735036209698467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>2.7585134545231617E+33</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>0.72836976372655027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>7.4984169969900978E+33</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>0.72934328472496357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>2.0382810665126626E+34</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>0.7302729900607845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>5.5406223843934923E+34</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>0.73116085176367795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>1.5060973145850256E+35</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>0.73200875310735369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>4.0939969621274412E+35</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>0.73281849260424159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1.1128637547917556E+36</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>0.73359178782037815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>3.0250773222011319E+36</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>0.7343302790185946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>8.2230127146228848E+36</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>0.73503553263773325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>2.2352466037347074E+37</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>0.73570904461527542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>6.0760302250568511E+37</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>0.73635224356042495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>1.651636254993996E+38</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>0.73696649378437962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>4.4896128191743297E+38</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>0.7375530981942181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1.2204032943178363E+39</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>0.73811330105654149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>3.3174000983357301E+39</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>0.73864829063672832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>9.0176284050342671E+39</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>0.73915920171940541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>2.4512455429200768E+40</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>0.73964711801547822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>6.663176216410871E+40</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>0.74011307446082686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>1.8112390828890168E+41</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>0.74055805941154362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>4.9234582860120397E+41</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>0.74098301674036926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>1.3383347192042644E+42</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>0.74138884783877335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>3.6379709476087905E+42</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>0.74177641352892598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>9.8890303193469079E+42</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>0.74214653588961821</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>2.6881171418161247E+43</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>0.74249999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>